--- a/project_implementation/csvs/20m good for office c/office_c_20m_k=5_filtered_init_loc/err.xlsx
+++ b/project_implementation/csvs/20m good for office c/office_c_20m_k=5_filtered_init_loc/err.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mashk\MyFiles\Semester 8\FYP\code\project_implementation\csvs\20m good for office c\office_c_20m_k=5_filtered_init_loc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B085C5AD-3D27-4524-AF15-E2B6EB61DE59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26BB9E29-4F0A-434B-AE82-DABD9B9CC345}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3856,10 +3856,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B997"/>
+  <dimension ref="A1:F1005"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A977" workbookViewId="0">
-      <selection activeCell="J980" sqref="J980"/>
+    <sheetView tabSelected="1" topLeftCell="A983" workbookViewId="0">
+      <selection activeCell="A997" sqref="A997:F1005"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -11800,7 +11800,7 @@
         <v>6.49205991978158</v>
       </c>
     </row>
-    <row r="993" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="993" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A993" t="s">
         <v>992</v>
       </c>
@@ -11808,7 +11808,7 @@
         <v>5.1876979568872503</v>
       </c>
     </row>
-    <row r="994" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="994" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A994" t="s">
         <v>993</v>
       </c>
@@ -11816,10 +11816,220 @@
         <v>3.1116699956691498</v>
       </c>
     </row>
-    <row r="997" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="997" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A997">
+        <v>1</v>
+      </c>
       <c r="B997">
+        <f>COUNTIF(B1:B994,"&lt;=1")</f>
+        <v>56</v>
+      </c>
+      <c r="C997">
+        <v>994</v>
+      </c>
+      <c r="D997">
+        <f>B997*100/C997</f>
+        <v>5.6338028169014081</v>
+      </c>
+      <c r="E997">
+        <f>COUNTIF(B1:B994,"&lt;=1")*100/COUNT(B1:B994)</f>
+        <v>5.6338028169014081</v>
+      </c>
+      <c r="F997">
+        <f>ROUND(D997,2)</f>
+        <v>5.63</v>
+      </c>
+    </row>
+    <row r="998" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A998">
+        <v>2</v>
+      </c>
+      <c r="B998">
+        <f>COUNTIF(B1:B994,"&lt;=2")</f>
+        <v>135</v>
+      </c>
+      <c r="C998">
+        <v>994</v>
+      </c>
+      <c r="D998">
+        <f t="shared" ref="D998:D1005" si="0">B998*100/C998</f>
+        <v>13.58148893360161</v>
+      </c>
+      <c r="E998">
+        <f>COUNTIF(B1:B994,"&lt;=2")*100/COUNT(B1:B994)</f>
+        <v>13.58148893360161</v>
+      </c>
+      <c r="F998">
+        <f t="shared" ref="F998:F1005" si="1">ROUND(D998,2)</f>
+        <v>13.58</v>
+      </c>
+    </row>
+    <row r="999" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A999">
+        <v>4</v>
+      </c>
+      <c r="B999">
+        <f>COUNTIF(B1:B994,"&lt;=4")</f>
+        <v>305</v>
+      </c>
+      <c r="C999">
+        <v>994</v>
+      </c>
+      <c r="D999">
+        <f t="shared" si="0"/>
+        <v>30.684104627766601</v>
+      </c>
+      <c r="E999">
+        <f>COUNTIF(B1:B994,"&lt;=4")*100/COUNT(B1:B994)</f>
+        <v>30.684104627766601</v>
+      </c>
+      <c r="F999">
+        <f t="shared" si="1"/>
+        <v>30.68</v>
+      </c>
+    </row>
+    <row r="1000" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1000">
+        <v>6</v>
+      </c>
+      <c r="B1000">
+        <f>COUNTIF(B1:B994,"&lt;=6")</f>
+        <v>478</v>
+      </c>
+      <c r="C1000">
+        <v>994</v>
+      </c>
+      <c r="D1000">
+        <f t="shared" si="0"/>
+        <v>48.088531187122733</v>
+      </c>
+      <c r="E1000">
+        <f>COUNTIF(B1:B994,"&lt;=6")*100/COUNT(B1:B994)</f>
+        <v>48.088531187122733</v>
+      </c>
+      <c r="F1000">
+        <f t="shared" si="1"/>
+        <v>48.09</v>
+      </c>
+    </row>
+    <row r="1001" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1001">
+        <v>8</v>
+      </c>
+      <c r="B1001">
+        <f>COUNTIF(B1:B994,"&lt;=8")</f>
+        <v>594</v>
+      </c>
+      <c r="C1001">
+        <v>994</v>
+      </c>
+      <c r="D1001">
+        <f t="shared" si="0"/>
+        <v>59.758551307847085</v>
+      </c>
+      <c r="E1001">
+        <f>COUNTIF(B1:B994,"&lt;=8")*100/COUNT(B1:B994)</f>
+        <v>59.758551307847085</v>
+      </c>
+      <c r="F1001">
+        <f t="shared" si="1"/>
+        <v>59.76</v>
+      </c>
+    </row>
+    <row r="1002" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1002">
+        <v>10</v>
+      </c>
+      <c r="B1002">
+        <f>COUNTIF(B1:B994,"&lt;10")</f>
+        <v>683</v>
+      </c>
+      <c r="C1002">
+        <v>994</v>
+      </c>
+      <c r="D1002">
+        <f t="shared" si="0"/>
+        <v>68.712273641851112</v>
+      </c>
+      <c r="E1002">
         <f>COUNTIF(B1:B994,"&lt;=10")*100/COUNT(B1:B994)</f>
         <v>68.712273641851112</v>
+      </c>
+      <c r="F1002">
+        <f t="shared" si="1"/>
+        <v>68.709999999999994</v>
+      </c>
+    </row>
+    <row r="1003" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1003">
+        <v>12</v>
+      </c>
+      <c r="B1003">
+        <f>COUNTIF(B1:B994,"&lt;=12")</f>
+        <v>743</v>
+      </c>
+      <c r="C1003">
+        <v>994</v>
+      </c>
+      <c r="D1003">
+        <f t="shared" si="0"/>
+        <v>74.74849094567405</v>
+      </c>
+      <c r="E1003">
+        <f>COUNTIF(B1:B994,"&lt;=12")*100/COUNT(B1:B994)</f>
+        <v>74.74849094567405</v>
+      </c>
+      <c r="F1003">
+        <f t="shared" si="1"/>
+        <v>74.75</v>
+      </c>
+    </row>
+    <row r="1004" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1004">
+        <v>15</v>
+      </c>
+      <c r="B1004">
+        <f>COUNTIF(B1:B994,"&lt;=15")</f>
+        <v>833</v>
+      </c>
+      <c r="C1004">
+        <v>994</v>
+      </c>
+      <c r="D1004">
+        <f t="shared" si="0"/>
+        <v>83.802816901408448</v>
+      </c>
+      <c r="E1004">
+        <f>COUNTIF(B1:B994,"&lt;=15")*100/COUNT(B1:B994)</f>
+        <v>83.802816901408448</v>
+      </c>
+      <c r="F1004">
+        <f t="shared" si="1"/>
+        <v>83.8</v>
+      </c>
+    </row>
+    <row r="1005" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1005">
+        <v>17</v>
+      </c>
+      <c r="B1005">
+        <f>COUNTIF(B1:B994,"&lt;=17")</f>
+        <v>883</v>
+      </c>
+      <c r="C1005">
+        <v>994</v>
+      </c>
+      <c r="D1005">
+        <f t="shared" si="0"/>
+        <v>88.83299798792757</v>
+      </c>
+      <c r="E1005">
+        <f>COUNTIF(B1:B994,"&lt;=17")*100/COUNT(B1:B994)</f>
+        <v>88.83299798792757</v>
+      </c>
+      <c r="F1005">
+        <f t="shared" si="1"/>
+        <v>88.83</v>
       </c>
     </row>
   </sheetData>
